--- a/Fiche_Test.xlsx
+++ b/Fiche_Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Documents\Cours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Documents\GitHub\PolyShopping-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253DC1B9-9F9B-4FC5-AD63-DF9B4000B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05334D1-DDB1-471C-BE72-98E23FDEB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1ECB2449-54EB-4E04-B633-D74CC070E514}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="58">
   <si>
     <t>Numéro de test</t>
   </si>
@@ -203,6 +203,33 @@
   </si>
   <si>
     <t>Un message indique que l'article a bien été modifié et il est visible dans la liste d'article</t>
+  </si>
+  <si>
+    <t>Publier une annonce</t>
+  </si>
+  <si>
+    <t>Base de donnée active
+Utilisateur déconnecté
+Annonce non publié</t>
+  </si>
+  <si>
+    <t>L'annonce n'est pas visible dans les listes</t>
+  </si>
+  <si>
+    <t>Base de donnée active
+Utilisateur déconnecté
+Annonce publié</t>
+  </si>
+  <si>
+    <t>L'annonce est visible dans les listes</t>
+  </si>
+  <si>
+    <t>Base de donnée active
+Utilisateur connecté
+Annonce à publier</t>
+  </si>
+  <si>
+    <t>Un message indique que l'annonce a bien été publié</t>
   </si>
 </sst>
 </file>
@@ -560,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCF8AE5-F271-4CFB-B5E9-3587C74ADEE2}">
-  <dimension ref="B3:K39"/>
+  <dimension ref="B3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -1123,33 +1150,33 @@
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -1157,22 +1184,22 @@
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -1183,21 +1210,21 @@
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1206,10 +1233,10 @@
         <v>43</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -1217,22 +1244,22 @@
         <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -1243,36 +1270,36 @@
         <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -1283,36 +1310,36 @@
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -1323,12 +1350,92 @@
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Fiche_Test.xlsx
+++ b/Fiche_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Documents\GitHub\PolyShopping-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05334D1-DDB1-471C-BE72-98E23FDEB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756B86C-CFFE-408A-8D0E-99EB6973E03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1ECB2449-54EB-4E04-B633-D74CC070E514}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{1ECB2449-54EB-4E04-B633-D74CC070E514}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
   <si>
     <t>Numéro de test</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Un message indique que l'annonce a bien été publié</t>
+  </si>
+  <si>
+    <t>Accès site</t>
+  </si>
+  <si>
+    <t>La page d'accueil du site s'affiche</t>
   </si>
 </sst>
 </file>
@@ -587,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCF8AE5-F271-4CFB-B5E9-3587C74ADEE2}">
-  <dimension ref="B3:K43"/>
+  <dimension ref="B3:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,6 +1445,144 @@
         <v>47</v>
       </c>
     </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
